--- a/Testdata/Qafox_Login_Data.xlsx
+++ b/Testdata/Qafox_Login_Data.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeelimaBusam\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15075" windowHeight="1860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,7 +207,7 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <a:fld id="{8CBFD1D0-E9DC-498D-951B-74921507810A}" type="mathplaceholder">
+                    <a:fld id="{60E8C7A1-EBCD-49AE-9444-A7BAA6D0AF81}" type="mathplaceholder">
                       <a:rPr lang="en-IN" sz="1100" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
@@ -543,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
